--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il6-Il6ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il6-Il6ra.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.2878555</v>
+        <v>18.1667185</v>
       </c>
       <c r="H2">
-        <v>22.575711</v>
+        <v>36.333437</v>
       </c>
       <c r="I2">
-        <v>0.08226787741619844</v>
+        <v>0.1223713430663405</v>
       </c>
       <c r="J2">
-        <v>0.05888623016695</v>
+        <v>0.09065557961739065</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.8378195</v>
+        <v>2.1338745</v>
       </c>
       <c r="N2">
-        <v>5.675639</v>
+        <v>4.267749</v>
       </c>
       <c r="O2">
-        <v>0.06080381239155241</v>
+        <v>0.03031745650393224</v>
       </c>
       <c r="P2">
-        <v>0.04147740483545635</v>
+        <v>0.02046165915200641</v>
       </c>
       <c r="Q2">
-        <v>32.03289645108225</v>
+        <v>38.76549735582826</v>
       </c>
       <c r="R2">
-        <v>128.131585804329</v>
+        <v>155.061989423313</v>
       </c>
       <c r="S2">
-        <v>0.005002200584265762</v>
+        <v>0.003709987870741548</v>
       </c>
       <c r="T2">
-        <v>0.002442448007868447</v>
+        <v>0.001854963570358628</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.2878555</v>
+        <v>18.1667185</v>
       </c>
       <c r="H3">
-        <v>22.575711</v>
+        <v>36.333437</v>
       </c>
       <c r="I3">
-        <v>0.08226787741619844</v>
+        <v>0.1223713430663405</v>
       </c>
       <c r="J3">
-        <v>0.05888623016695</v>
+        <v>0.09065557961739065</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>3.064042</v>
       </c>
       <c r="O3">
-        <v>0.02188363694118401</v>
+        <v>0.01451100022693017</v>
       </c>
       <c r="P3">
-        <v>0.02239192987200936</v>
+        <v>0.01469050383034055</v>
       </c>
       <c r="Q3">
-        <v>11.528821113977</v>
+        <v>18.55452949539233</v>
       </c>
       <c r="R3">
-        <v>69.17292668386199</v>
+        <v>111.327176972354</v>
       </c>
       <c r="S3">
-        <v>0.001800320361297918</v>
+        <v>0.001775730587005417</v>
       </c>
       <c r="T3">
-        <v>0.001318576336325347</v>
+        <v>0.00133177613961102</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.2878555</v>
+        <v>18.1667185</v>
       </c>
       <c r="H4">
-        <v>22.575711</v>
+        <v>36.333437</v>
       </c>
       <c r="I4">
-        <v>0.08226787741619844</v>
+        <v>0.1223713430663405</v>
       </c>
       <c r="J4">
-        <v>0.05888623016695</v>
+        <v>0.09065557961739065</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.96012766666667</v>
+        <v>22.57116733333334</v>
       </c>
       <c r="N4">
-        <v>56.88038300000001</v>
+        <v>67.71350200000001</v>
       </c>
       <c r="O4">
-        <v>0.4062443173584093</v>
+        <v>0.3206844563123603</v>
       </c>
       <c r="P4">
-        <v>0.4156801855943991</v>
+        <v>0.3246513789617676</v>
       </c>
       <c r="Q4">
-        <v>214.0191813628855</v>
+        <v>410.0440431610624</v>
       </c>
       <c r="R4">
-        <v>1284.115088177313</v>
+        <v>2460.264258966375</v>
       </c>
       <c r="S4">
-        <v>0.03342085770146883</v>
+        <v>0.03924258761944272</v>
       </c>
       <c r="T4">
-        <v>0.02447783908475228</v>
+        <v>0.02943145893336419</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.2878555</v>
+        <v>18.1667185</v>
       </c>
       <c r="H5">
-        <v>22.575711</v>
+        <v>36.333437</v>
       </c>
       <c r="I5">
-        <v>0.08226787741619844</v>
+        <v>0.1223713430663405</v>
       </c>
       <c r="J5">
-        <v>0.05888623016695</v>
+        <v>0.09065557961739065</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3405015</v>
+        <v>0.4462095</v>
       </c>
       <c r="N5">
-        <v>0.681003</v>
+        <v>0.892419</v>
       </c>
       <c r="O5">
-        <v>0.007295668144165683</v>
+        <v>0.006339612337975524</v>
       </c>
       <c r="P5">
-        <v>0.004976750128956454</v>
+        <v>0.00427868963211623</v>
       </c>
       <c r="Q5">
-        <v>3.84353172953325</v>
+        <v>8.106162378525751</v>
       </c>
       <c r="R5">
-        <v>15.374126918133</v>
+        <v>32.424649514103</v>
       </c>
       <c r="S5">
-        <v>0.0006001991325534864</v>
+        <v>0.0007757868763180078</v>
       </c>
       <c r="T5">
-        <v>0.0002930620535771278</v>
+        <v>0.0003878870886024169</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.2878555</v>
+        <v>18.1667185</v>
       </c>
       <c r="H6">
-        <v>22.575711</v>
+        <v>36.333437</v>
       </c>
       <c r="I6">
-        <v>0.08226787741619844</v>
+        <v>0.1223713430663405</v>
       </c>
       <c r="J6">
-        <v>0.05888623016695</v>
+        <v>0.09065557961739065</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.981512</v>
+        <v>33.90675166666667</v>
       </c>
       <c r="N6">
-        <v>5.944536</v>
+        <v>101.720255</v>
       </c>
       <c r="O6">
-        <v>0.04245635915166902</v>
+        <v>0.4817370791224127</v>
       </c>
       <c r="P6">
-        <v>0.04344249629529721</v>
+        <v>0.4876962508022792</v>
       </c>
       <c r="Q6">
-        <v>22.367021127516</v>
+        <v>615.9744127777393</v>
       </c>
       <c r="R6">
-        <v>134.202126765096</v>
+        <v>3695.846476666436</v>
       </c>
       <c r="S6">
-        <v>0.003492794550227602</v>
+        <v>0.05895081337706558</v>
       </c>
       <c r="T6">
-        <v>0.002558164835871745</v>
+        <v>0.04421238629370895</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.2878555</v>
+        <v>18.1667185</v>
       </c>
       <c r="H7">
-        <v>22.575711</v>
+        <v>36.333437</v>
       </c>
       <c r="I7">
-        <v>0.08226787741619844</v>
+        <v>0.1223713430663405</v>
       </c>
       <c r="J7">
-        <v>0.05888623016695</v>
+        <v>0.09065557961739065</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.53042833333333</v>
+        <v>10.30500066666667</v>
       </c>
       <c r="N7">
-        <v>64.591285</v>
+        <v>30.915002</v>
       </c>
       <c r="O7">
-        <v>0.4613162060130196</v>
+        <v>0.146410395496389</v>
       </c>
       <c r="P7">
-        <v>0.4720312332738815</v>
+        <v>0.1482215176214901</v>
       </c>
       <c r="Q7">
-        <v>243.0323638797725</v>
+        <v>187.2080462536457</v>
       </c>
       <c r="R7">
-        <v>1458.194183278635</v>
+        <v>1123.248277521874</v>
       </c>
       <c r="S7">
-        <v>0.03795150508638485</v>
+        <v>0.01791643673576722</v>
       </c>
       <c r="T7">
-        <v>0.02779613984855505</v>
+        <v>0.01343710759174547</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>286.583305</v>
       </c>
       <c r="I8">
-        <v>0.6962231873972581</v>
+        <v>0.6434767683046462</v>
       </c>
       <c r="J8">
-        <v>0.7475206632577479</v>
+        <v>0.715054169619088</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.8378195</v>
+        <v>2.1338745</v>
       </c>
       <c r="N8">
-        <v>5.675639</v>
+        <v>4.267749</v>
       </c>
       <c r="O8">
-        <v>0.06080381239155241</v>
+        <v>0.03031745650393224</v>
       </c>
       <c r="P8">
-        <v>0.04147740483545635</v>
+        <v>0.02046165915200641</v>
       </c>
       <c r="Q8">
-        <v>271.0905637678158</v>
+        <v>203.8442688884075</v>
       </c>
       <c r="R8">
-        <v>1626.543382606895</v>
+        <v>1223.065613330445</v>
       </c>
       <c r="S8">
-        <v>0.04233302406915152</v>
+        <v>0.019508578934367</v>
       </c>
       <c r="T8">
-        <v>0.03100521717281045</v>
+        <v>0.01463119469396676</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>286.583305</v>
       </c>
       <c r="I9">
-        <v>0.6962231873972581</v>
+        <v>0.6434767683046462</v>
       </c>
       <c r="J9">
-        <v>0.7475206632577479</v>
+        <v>0.715054169619088</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>3.064042</v>
       </c>
       <c r="O9">
-        <v>0.02188363694118401</v>
+        <v>0.01451100022693017</v>
       </c>
       <c r="P9">
-        <v>0.02239192987200936</v>
+        <v>0.01469050383034055</v>
       </c>
       <c r="Q9">
         <v>97.56703144653441</v>
@@ -1013,10 +1013,10 @@
         <v>878.1032830188099</v>
       </c>
       <c r="S9">
-        <v>0.01523589546303552</v>
+        <v>0.009337491530893015</v>
       </c>
       <c r="T9">
-        <v>0.01673843026954542</v>
+        <v>0.01050450601769019</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>286.583305</v>
       </c>
       <c r="I10">
-        <v>0.6962231873972581</v>
+        <v>0.6434767683046462</v>
       </c>
       <c r="J10">
-        <v>0.7475206632577479</v>
+        <v>0.715054169619088</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.96012766666667</v>
+        <v>22.57116733333334</v>
       </c>
       <c r="N10">
-        <v>56.88038300000001</v>
+        <v>67.71350200000001</v>
       </c>
       <c r="O10">
-        <v>0.4062443173584093</v>
+        <v>0.3206844563123603</v>
       </c>
       <c r="P10">
-        <v>0.4156801855943991</v>
+        <v>0.3246513789617676</v>
       </c>
       <c r="Q10">
-        <v>1811.218683311757</v>
+        <v>2156.173244031568</v>
       </c>
       <c r="R10">
-        <v>16300.96814980582</v>
+        <v>19405.55919628411</v>
       </c>
       <c r="S10">
-        <v>0.282836713493295</v>
+        <v>0.2063529975934101</v>
       </c>
       <c r="T10">
-        <v>0.310729528038629</v>
+        <v>0.2321433221991986</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>286.583305</v>
       </c>
       <c r="I11">
-        <v>0.6962231873972581</v>
+        <v>0.6434767683046462</v>
       </c>
       <c r="J11">
-        <v>0.7475206632577479</v>
+        <v>0.715054169619088</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3405015</v>
+        <v>0.4462095</v>
       </c>
       <c r="N11">
-        <v>0.681003</v>
+        <v>0.892419</v>
       </c>
       <c r="O11">
-        <v>0.007295668144165683</v>
+        <v>0.006339612337975524</v>
       </c>
       <c r="P11">
-        <v>0.004976750128956454</v>
+        <v>0.00427868963211623</v>
       </c>
       <c r="Q11">
-        <v>32.5273484091525</v>
+        <v>42.62539774413249</v>
       </c>
       <c r="R11">
-        <v>195.164090454915</v>
+        <v>255.752386464795</v>
       </c>
       <c r="S11">
-        <v>0.00507941332952367</v>
+        <v>0.004079393259544753</v>
       </c>
       <c r="T11">
-        <v>0.003720223557265611</v>
+        <v>0.003059494861950672</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>286.583305</v>
       </c>
       <c r="I12">
-        <v>0.6962231873972581</v>
+        <v>0.6434767683046462</v>
       </c>
       <c r="J12">
-        <v>0.7475206632577479</v>
+        <v>0.715054169619088</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.981512</v>
+        <v>33.90675166666667</v>
       </c>
       <c r="N12">
-        <v>5.944536</v>
+        <v>101.720255</v>
       </c>
       <c r="O12">
-        <v>0.04245635915166902</v>
+        <v>0.4817370791224127</v>
       </c>
       <c r="P12">
-        <v>0.04344249629529721</v>
+        <v>0.4876962508022792</v>
       </c>
       <c r="Q12">
-        <v>189.28941928572</v>
+        <v>3239.036318149198</v>
       </c>
       <c r="R12">
-        <v>1703.60477357148</v>
+        <v>29151.32686334278</v>
       </c>
       <c r="S12">
-        <v>0.02955910169385776</v>
+        <v>0.3099866188462098</v>
       </c>
       <c r="T12">
-        <v>0.03247416364423283</v>
+        <v>0.3487292376437662</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>286.583305</v>
       </c>
       <c r="I13">
-        <v>0.6962231873972581</v>
+        <v>0.6434767683046462</v>
       </c>
       <c r="J13">
-        <v>0.7475206632577479</v>
+        <v>0.715054169619088</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.53042833333333</v>
+        <v>10.30500066666667</v>
       </c>
       <c r="N13">
-        <v>64.591285</v>
+        <v>30.915002</v>
       </c>
       <c r="O13">
-        <v>0.4613162060130196</v>
+        <v>0.146410395496389</v>
       </c>
       <c r="P13">
-        <v>0.4720312332738815</v>
+        <v>0.1482215176214901</v>
       </c>
       <c r="Q13">
-        <v>2056.753769944103</v>
+        <v>984.4137163601788</v>
       </c>
       <c r="R13">
-        <v>18510.78392949692</v>
+        <v>8859.723447241609</v>
       </c>
       <c r="S13">
-        <v>0.3211790393483947</v>
+        <v>0.09421168814022154</v>
       </c>
       <c r="T13">
-        <v>0.3528531005752646</v>
+        <v>0.1059864142025156</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.500914666666667</v>
+        <v>7.527206666666667</v>
       </c>
       <c r="H14">
-        <v>4.502744</v>
+        <v>22.58162</v>
       </c>
       <c r="I14">
-        <v>0.01093893023431312</v>
+        <v>0.05070339969972629</v>
       </c>
       <c r="J14">
-        <v>0.01174490670822519</v>
+        <v>0.05634341308805058</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.8378195</v>
+        <v>2.1338745</v>
       </c>
       <c r="N14">
-        <v>5.675639</v>
+        <v>4.267749</v>
       </c>
       <c r="O14">
-        <v>0.06080381239155241</v>
+        <v>0.03031745650393224</v>
       </c>
       <c r="P14">
-        <v>0.04147740483545635</v>
+        <v>0.02046165915200641</v>
       </c>
       <c r="Q14">
-        <v>4.259324908902666</v>
+        <v>16.06211436223</v>
       </c>
       <c r="R14">
-        <v>25.555949453416</v>
+        <v>96.37268617338</v>
       </c>
       <c r="S14">
-        <v>0.0006651286617314557</v>
+        <v>0.001537198114997943</v>
       </c>
       <c r="T14">
-        <v>0.0004871482502917231</v>
+        <v>0.001152879714068388</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.500914666666667</v>
+        <v>7.527206666666667</v>
       </c>
       <c r="H15">
-        <v>4.502744</v>
+        <v>22.58162</v>
       </c>
       <c r="I15">
-        <v>0.01093893023431312</v>
+        <v>0.05070339969972629</v>
       </c>
       <c r="J15">
-        <v>0.01174490670822519</v>
+        <v>0.05634341308805058</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>3.064042</v>
       </c>
       <c r="O15">
-        <v>0.02188363694118401</v>
+        <v>0.01451100022693017</v>
       </c>
       <c r="P15">
-        <v>0.02239192987200936</v>
+        <v>0.01469050383034055</v>
       </c>
       <c r="Q15">
-        <v>1.532955192360889</v>
+        <v>7.687892456448888</v>
       </c>
       <c r="R15">
-        <v>13.796596731248</v>
+        <v>69.19103210803999</v>
       </c>
       <c r="S15">
-        <v>0.0002393835777726494</v>
+        <v>0.0007357570445488595</v>
       </c>
       <c r="T15">
-        <v>0.0002629911273638707</v>
+        <v>0.0008277131257844666</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.500914666666667</v>
+        <v>7.527206666666667</v>
       </c>
       <c r="H16">
-        <v>4.502744</v>
+        <v>22.58162</v>
       </c>
       <c r="I16">
-        <v>0.01093893023431312</v>
+        <v>0.05070339969972629</v>
       </c>
       <c r="J16">
-        <v>0.01174490670822519</v>
+        <v>0.05634341308805058</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.96012766666667</v>
+        <v>22.57116733333334</v>
       </c>
       <c r="N16">
-        <v>56.88038300000001</v>
+        <v>67.71350200000001</v>
       </c>
       <c r="O16">
-        <v>0.4062443173584093</v>
+        <v>0.3206844563123603</v>
       </c>
       <c r="P16">
-        <v>0.4156801855943991</v>
+        <v>0.3246513789617676</v>
       </c>
       <c r="Q16">
-        <v>28.45753369677245</v>
+        <v>169.8978412259156</v>
       </c>
       <c r="R16">
-        <v>256.117803270952</v>
+        <v>1529.08057103324</v>
       </c>
       <c r="S16">
-        <v>0.0044438782456698</v>
+        <v>0.01625979216589502</v>
       </c>
       <c r="T16">
-        <v>0.004882125000263949</v>
+        <v>0.01829196675444813</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.500914666666667</v>
+        <v>7.527206666666667</v>
       </c>
       <c r="H17">
-        <v>4.502744</v>
+        <v>22.58162</v>
       </c>
       <c r="I17">
-        <v>0.01093893023431312</v>
+        <v>0.05070339969972629</v>
       </c>
       <c r="J17">
-        <v>0.01174490670822519</v>
+        <v>0.05634341308805058</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.3405015</v>
+        <v>0.4462095</v>
       </c>
       <c r="N17">
-        <v>0.681003</v>
+        <v>0.892419</v>
       </c>
       <c r="O17">
-        <v>0.007295668144165683</v>
+        <v>0.006339612337975524</v>
       </c>
       <c r="P17">
-        <v>0.004976750128956454</v>
+        <v>0.00427868963211623</v>
       </c>
       <c r="Q17">
-        <v>0.511063695372</v>
+        <v>3.35871112313</v>
       </c>
       <c r="R17">
-        <v>3.066382172232</v>
+        <v>20.15226673878</v>
       </c>
       <c r="S17">
-        <v>7.980680484172911E-05</v>
+        <v>0.0003214398983136892</v>
       </c>
       <c r="T17">
-        <v>5.845146597474122E-05</v>
+        <v>0.0002410759774178839</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.500914666666667</v>
+        <v>7.527206666666667</v>
       </c>
       <c r="H18">
-        <v>4.502744</v>
+        <v>22.58162</v>
       </c>
       <c r="I18">
-        <v>0.01093893023431312</v>
+        <v>0.05070339969972629</v>
       </c>
       <c r="J18">
-        <v>0.01174490670822519</v>
+        <v>0.05634341308805058</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.981512</v>
+        <v>33.90675166666667</v>
       </c>
       <c r="N18">
-        <v>5.944536</v>
+        <v>101.720255</v>
       </c>
       <c r="O18">
-        <v>0.04245635915166902</v>
+        <v>0.4817370791224127</v>
       </c>
       <c r="P18">
-        <v>0.04344249629529721</v>
+        <v>0.4876962508022792</v>
       </c>
       <c r="Q18">
-        <v>2.974080422976</v>
+        <v>255.2231271903445</v>
       </c>
       <c r="R18">
-        <v>26.766723806784</v>
+        <v>2297.0081447131</v>
       </c>
       <c r="S18">
-        <v>0.000464427150763049</v>
+        <v>0.02442570767292236</v>
       </c>
       <c r="T18">
-        <v>0.0005102280661606841</v>
+        <v>0.02747847132044634</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.500914666666667</v>
+        <v>7.527206666666667</v>
       </c>
       <c r="H19">
-        <v>4.502744</v>
+        <v>22.58162</v>
       </c>
       <c r="I19">
-        <v>0.01093893023431312</v>
+        <v>0.05070339969972629</v>
       </c>
       <c r="J19">
-        <v>0.01174490670822519</v>
+        <v>0.05634341308805058</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.53042833333333</v>
+        <v>10.30500066666667</v>
       </c>
       <c r="N19">
-        <v>64.591285</v>
+        <v>30.915002</v>
       </c>
       <c r="O19">
-        <v>0.4613162060130196</v>
+        <v>0.146410395496389</v>
       </c>
       <c r="P19">
-        <v>0.4720312332738815</v>
+        <v>0.1482215176214901</v>
       </c>
       <c r="Q19">
-        <v>32.31533566511555</v>
+        <v>77.56786971813779</v>
       </c>
       <c r="R19">
-        <v>290.83802098604</v>
+        <v>698.1108274632401</v>
       </c>
       <c r="S19">
-        <v>0.005046305793534442</v>
+        <v>0.007423504803048419</v>
       </c>
       <c r="T19">
-        <v>0.005543962798170218</v>
+        <v>0.008351306195885384</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>16.959331</v>
+        <v>26.4148145</v>
       </c>
       <c r="H20">
-        <v>33.918662</v>
+        <v>52.829629</v>
       </c>
       <c r="I20">
-        <v>0.1236025889743835</v>
+        <v>0.1779306663013051</v>
       </c>
       <c r="J20">
-        <v>0.08847305573175439</v>
+        <v>0.1318152377923044</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.8378195</v>
+        <v>2.1338745</v>
       </c>
       <c r="N20">
-        <v>5.675639</v>
+        <v>4.267749</v>
       </c>
       <c r="O20">
-        <v>0.06080381239155241</v>
+        <v>0.03031745650393224</v>
       </c>
       <c r="P20">
-        <v>0.04147740483545635</v>
+        <v>0.02046165915200641</v>
       </c>
       <c r="Q20">
-        <v>48.1275202187545</v>
+        <v>56.36589908378025</v>
       </c>
       <c r="R20">
-        <v>192.510080875018</v>
+        <v>225.463596335121</v>
       </c>
       <c r="S20">
-        <v>0.007515508631108578</v>
+        <v>0.005394405236305498</v>
       </c>
       <c r="T20">
-        <v>0.003669632749615869</v>
+        <v>0.002697158466746806</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>16.959331</v>
+        <v>26.4148145</v>
       </c>
       <c r="H21">
-        <v>33.918662</v>
+        <v>52.829629</v>
       </c>
       <c r="I21">
-        <v>0.1236025889743835</v>
+        <v>0.1779306663013051</v>
       </c>
       <c r="J21">
-        <v>0.08847305573175439</v>
+        <v>0.1318152377923044</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>3.064042</v>
       </c>
       <c r="O21">
-        <v>0.02188363694118401</v>
+        <v>0.01451100022693017</v>
       </c>
       <c r="P21">
-        <v>0.02239192987200936</v>
+        <v>0.01469050383034055</v>
       </c>
       <c r="Q21">
-        <v>17.32136749196733</v>
+        <v>26.97870035006966</v>
       </c>
       <c r="R21">
-        <v>103.928204951804</v>
+        <v>161.872202100418</v>
       </c>
       <c r="S21">
-        <v>0.002704874182105802</v>
+        <v>0.002581951939076075</v>
       </c>
       <c r="T21">
-        <v>0.00198108245950782</v>
+        <v>0.001936432255685097</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>16.959331</v>
+        <v>26.4148145</v>
       </c>
       <c r="H22">
-        <v>33.918662</v>
+        <v>52.829629</v>
       </c>
       <c r="I22">
-        <v>0.1236025889743835</v>
+        <v>0.1779306663013051</v>
       </c>
       <c r="J22">
-        <v>0.08847305573175439</v>
+        <v>0.1318152377923044</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>18.96012766666667</v>
+        <v>22.57116733333334</v>
       </c>
       <c r="N22">
-        <v>56.88038300000001</v>
+        <v>67.71350200000001</v>
       </c>
       <c r="O22">
-        <v>0.4062443173584093</v>
+        <v>0.3206844563123603</v>
       </c>
       <c r="P22">
-        <v>0.4156801855943991</v>
+        <v>0.3246513789617676</v>
       </c>
       <c r="Q22">
-        <v>321.5510809012576</v>
+        <v>596.2131981584597</v>
       </c>
       <c r="R22">
-        <v>1929.306485407546</v>
+        <v>3577.279188950758</v>
       </c>
       <c r="S22">
-        <v>0.05021284938163047</v>
+        <v>0.05705959898413002</v>
       </c>
       <c r="T22">
-        <v>0.03677649622667928</v>
+        <v>0.04279399871744492</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>16.959331</v>
+        <v>26.4148145</v>
       </c>
       <c r="H23">
-        <v>33.918662</v>
+        <v>52.829629</v>
       </c>
       <c r="I23">
-        <v>0.1236025889743835</v>
+        <v>0.1779306663013051</v>
       </c>
       <c r="J23">
-        <v>0.08847305573175439</v>
+        <v>0.1318152377923044</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.3405015</v>
+        <v>0.4462095</v>
       </c>
       <c r="N23">
-        <v>0.681003</v>
+        <v>0.892419</v>
       </c>
       <c r="O23">
-        <v>0.007295668144165683</v>
+        <v>0.006339612337975524</v>
       </c>
       <c r="P23">
-        <v>0.004976750128956454</v>
+        <v>0.00427868963211623</v>
       </c>
       <c r="Q23">
-        <v>5.7746776444965</v>
+        <v>11.78654117063775</v>
       </c>
       <c r="R23">
-        <v>23.098710577986</v>
+        <v>47.146164682551</v>
       </c>
       <c r="S23">
-        <v>0.0009017634709168141</v>
+        <v>0.001128011447387959</v>
       </c>
       <c r="T23">
-        <v>0.0004403082915221802</v>
+        <v>0.0005639964912968682</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>16.959331</v>
+        <v>26.4148145</v>
       </c>
       <c r="H24">
-        <v>33.918662</v>
+        <v>52.829629</v>
       </c>
       <c r="I24">
-        <v>0.1236025889743835</v>
+        <v>0.1779306663013051</v>
       </c>
       <c r="J24">
-        <v>0.08847305573175439</v>
+        <v>0.1318152377923044</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.981512</v>
+        <v>33.90675166666667</v>
       </c>
       <c r="N24">
-        <v>5.944536</v>
+        <v>101.720255</v>
       </c>
       <c r="O24">
-        <v>0.04245635915166902</v>
+        <v>0.4817370791224127</v>
       </c>
       <c r="P24">
-        <v>0.04344249629529721</v>
+        <v>0.4876962508022792</v>
       </c>
       <c r="Q24">
-        <v>33.605117888472</v>
+        <v>895.640555572566</v>
       </c>
       <c r="R24">
-        <v>201.630707330832</v>
+        <v>5373.843333435395</v>
       </c>
       <c r="S24">
-        <v>0.005247715909572551</v>
+        <v>0.08571579947029541</v>
       </c>
       <c r="T24">
-        <v>0.003843490395860364</v>
+        <v>0.06428579726991775</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>16.959331</v>
+        <v>26.4148145</v>
       </c>
       <c r="H25">
-        <v>33.918662</v>
+        <v>52.829629</v>
       </c>
       <c r="I25">
-        <v>0.1236025889743835</v>
+        <v>0.1779306663013051</v>
       </c>
       <c r="J25">
-        <v>0.08847305573175439</v>
+        <v>0.1318152377923044</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>21.53042833333333</v>
+        <v>10.30500066666667</v>
       </c>
       <c r="N25">
-        <v>64.591285</v>
+        <v>30.915002</v>
       </c>
       <c r="O25">
-        <v>0.4613162060130196</v>
+        <v>0.146410395496389</v>
       </c>
       <c r="P25">
-        <v>0.4720312332738815</v>
+        <v>0.1482215176214901</v>
       </c>
       <c r="Q25">
-        <v>365.1416606767783</v>
+        <v>272.2046810323763</v>
       </c>
       <c r="R25">
-        <v>2190.84996406067</v>
+        <v>1633.228086194258</v>
       </c>
       <c r="S25">
-        <v>0.05701987739904928</v>
+        <v>0.02605089922411009</v>
       </c>
       <c r="T25">
-        <v>0.04176204560856887</v>
+        <v>0.01953785459121295</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>10.374463</v>
+        <v>0.5285683333333333</v>
       </c>
       <c r="H26">
-        <v>31.123389</v>
+        <v>1.585705</v>
       </c>
       <c r="I26">
-        <v>0.07561091212966771</v>
+        <v>0.003560445814819949</v>
       </c>
       <c r="J26">
-        <v>0.08118189713845646</v>
+        <v>0.00395649346020291</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.8378195</v>
+        <v>2.1338745</v>
       </c>
       <c r="N26">
-        <v>5.675639</v>
+        <v>4.267749</v>
       </c>
       <c r="O26">
-        <v>0.06080381239155241</v>
+        <v>0.03031745650393224</v>
       </c>
       <c r="P26">
-        <v>0.04147740483545635</v>
+        <v>0.02046165915200641</v>
       </c>
       <c r="Q26">
-        <v>29.4408534034285</v>
+        <v>1.1278984880075</v>
       </c>
       <c r="R26">
-        <v>176.645120420571</v>
+        <v>6.767390928045</v>
       </c>
       <c r="S26">
-        <v>0.00459743171588647</v>
+        <v>0.0001079436611254114</v>
       </c>
       <c r="T26">
-        <v>0.003367214412922134</v>
+        <v>8.09564206198144E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>10.374463</v>
+        <v>0.5285683333333333</v>
       </c>
       <c r="H27">
-        <v>31.123389</v>
+        <v>1.585705</v>
       </c>
       <c r="I27">
-        <v>0.07561091212966771</v>
+        <v>0.003560445814819949</v>
       </c>
       <c r="J27">
-        <v>0.08118189713845646</v>
+        <v>0.00395649346020291</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>3.064042</v>
       </c>
       <c r="O27">
-        <v>0.02188363694118401</v>
+        <v>0.01451100022693017</v>
       </c>
       <c r="P27">
-        <v>0.02239192987200936</v>
+        <v>0.01469050383034055</v>
       </c>
       <c r="Q27">
-        <v>10.59593011981533</v>
+        <v>0.5398518577344443</v>
       </c>
       <c r="R27">
-        <v>95.36337107833799</v>
+        <v>4.85866671961</v>
       </c>
       <c r="S27">
-        <v>0.001654641749837414</v>
+        <v>5.166563002682487E-05</v>
       </c>
       <c r="T27">
-        <v>0.001817819347600994</v>
+        <v>5.812288233182816E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>10.374463</v>
+        <v>0.5285683333333333</v>
       </c>
       <c r="H28">
-        <v>31.123389</v>
+        <v>1.585705</v>
       </c>
       <c r="I28">
-        <v>0.07561091212966771</v>
+        <v>0.003560445814819949</v>
       </c>
       <c r="J28">
-        <v>0.08118189713845646</v>
+        <v>0.00395649346020291</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>18.96012766666667</v>
+        <v>22.57116733333334</v>
       </c>
       <c r="N28">
-        <v>56.88038300000001</v>
+        <v>67.71350200000001</v>
       </c>
       <c r="O28">
-        <v>0.4062443173584093</v>
+        <v>0.3206844563123603</v>
       </c>
       <c r="P28">
-        <v>0.4156801855943991</v>
+        <v>0.3246513789617676</v>
       </c>
       <c r="Q28">
-        <v>196.7011429531097</v>
+        <v>11.93040429876778</v>
       </c>
       <c r="R28">
-        <v>1770.310286577987</v>
+        <v>107.37363868891</v>
       </c>
       <c r="S28">
-        <v>0.03071650338296353</v>
+        <v>0.001141779630355154</v>
       </c>
       <c r="T28">
-        <v>0.033745706069419</v>
+        <v>0.00128448105770809</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>10.374463</v>
+        <v>0.5285683333333333</v>
       </c>
       <c r="H29">
-        <v>31.123389</v>
+        <v>1.585705</v>
       </c>
       <c r="I29">
-        <v>0.07561091212966771</v>
+        <v>0.003560445814819949</v>
       </c>
       <c r="J29">
-        <v>0.08118189713845646</v>
+        <v>0.00395649346020291</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.3405015</v>
+        <v>0.4462095</v>
       </c>
       <c r="N29">
-        <v>0.681003</v>
+        <v>0.892419</v>
       </c>
       <c r="O29">
-        <v>0.007295668144165683</v>
+        <v>0.006339612337975524</v>
       </c>
       <c r="P29">
-        <v>0.004976750128956454</v>
+        <v>0.00427868963211623</v>
       </c>
       <c r="Q29">
-        <v>3.5325202131945</v>
+        <v>0.2358522117325</v>
       </c>
       <c r="R29">
-        <v>21.195121279167</v>
+        <v>1.415113270395</v>
       </c>
       <c r="S29">
-        <v>0.0005516321229757273</v>
+        <v>2.257184621632587E-05</v>
       </c>
       <c r="T29">
-        <v>0.0004040220170527428</v>
+        <v>1.692860754770586E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>10.374463</v>
+        <v>0.5285683333333333</v>
       </c>
       <c r="H30">
-        <v>31.123389</v>
+        <v>1.585705</v>
       </c>
       <c r="I30">
-        <v>0.07561091212966771</v>
+        <v>0.003560445814819949</v>
       </c>
       <c r="J30">
-        <v>0.08118189713845646</v>
+        <v>0.00395649346020291</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.981512</v>
+        <v>33.90675166666667</v>
       </c>
       <c r="N30">
-        <v>5.944536</v>
+        <v>101.720255</v>
       </c>
       <c r="O30">
-        <v>0.04245635915166902</v>
+        <v>0.4817370791224127</v>
       </c>
       <c r="P30">
-        <v>0.04344249629529721</v>
+        <v>0.4876962508022792</v>
       </c>
       <c r="Q30">
-        <v>20.557122928056</v>
+        <v>17.92203521719722</v>
       </c>
       <c r="R30">
-        <v>185.014106352504</v>
+        <v>161.298316954775</v>
       </c>
       <c r="S30">
-        <v>0.00321016404116246</v>
+        <v>0.001715198767204981</v>
       </c>
       <c r="T30">
-        <v>0.003526744265682594</v>
+        <v>0.001929567026864696</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>10.374463</v>
+        <v>0.5285683333333333</v>
       </c>
       <c r="H31">
-        <v>31.123389</v>
+        <v>1.585705</v>
       </c>
       <c r="I31">
-        <v>0.07561091212966771</v>
+        <v>0.003560445814819949</v>
       </c>
       <c r="J31">
-        <v>0.08118189713845646</v>
+        <v>0.00395649346020291</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>21.53042833333333</v>
+        <v>10.30500066666667</v>
       </c>
       <c r="N31">
-        <v>64.591285</v>
+        <v>30.915002</v>
       </c>
       <c r="O31">
-        <v>0.4613162060130196</v>
+        <v>0.146410395496389</v>
       </c>
       <c r="P31">
-        <v>0.4720312332738815</v>
+        <v>0.1482215176214901</v>
       </c>
       <c r="Q31">
-        <v>223.3666321183183</v>
+        <v>5.446897027378888</v>
       </c>
       <c r="R31">
-        <v>2010.299689064865</v>
+        <v>49.02207324641</v>
       </c>
       <c r="S31">
-        <v>0.03488053911684211</v>
+        <v>0.0005212862798912519</v>
       </c>
       <c r="T31">
-        <v>0.03832039102577899</v>
+        <v>0.0005864374651307759</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>1.558209333333333</v>
+        <v>0.2905836666666666</v>
       </c>
       <c r="H32">
-        <v>4.674628</v>
+        <v>0.8717509999999999</v>
       </c>
       <c r="I32">
-        <v>0.0113565038481794</v>
+        <v>0.001957376813162035</v>
       </c>
       <c r="J32">
-        <v>0.0121932469968662</v>
+        <v>0.002175106422963506</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.8378195</v>
+        <v>2.1338745</v>
       </c>
       <c r="N32">
-        <v>5.675639</v>
+        <v>4.267749</v>
       </c>
       <c r="O32">
-        <v>0.06080381239155241</v>
+        <v>0.03031745650393224</v>
       </c>
       <c r="P32">
-        <v>0.04147740483545635</v>
+        <v>0.02046165915200641</v>
       </c>
       <c r="Q32">
-        <v>4.421916831215333</v>
+        <v>0.6200690764165</v>
       </c>
       <c r="R32">
-        <v>26.531500987292</v>
+        <v>3.720414458499</v>
       </c>
       <c r="S32">
-        <v>0.0006905187294086431</v>
+        <v>5.934268639484552E-05</v>
       </c>
       <c r="T32">
-        <v>0.0005057442419477316</v>
+        <v>4.450628624601916E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>1.558209333333333</v>
+        <v>0.2905836666666666</v>
       </c>
       <c r="H33">
-        <v>4.674628</v>
+        <v>0.8717509999999999</v>
       </c>
       <c r="I33">
-        <v>0.0113565038481794</v>
+        <v>0.001957376813162035</v>
       </c>
       <c r="J33">
-        <v>0.0121932469968662</v>
+        <v>0.002175106422963506</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>3.064042</v>
       </c>
       <c r="O33">
-        <v>0.02188363694118401</v>
+        <v>0.01451100022693017</v>
       </c>
       <c r="P33">
-        <v>0.02239192987200936</v>
+        <v>0.01469050383034055</v>
       </c>
       <c r="Q33">
-        <v>1.591472947375111</v>
+        <v>0.2967868530602221</v>
       </c>
       <c r="R33">
-        <v>14.323256526376</v>
+        <v>2.671081677541999</v>
       </c>
       <c r="S33">
-        <v>0.000248521607134717</v>
+        <v>2.840349537998215E-05</v>
       </c>
       <c r="T33">
-        <v>0.0002730303316659166</v>
+        <v>3.195340923794371E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>1.558209333333333</v>
+        <v>0.2905836666666666</v>
       </c>
       <c r="H34">
-        <v>4.674628</v>
+        <v>0.8717509999999999</v>
       </c>
       <c r="I34">
-        <v>0.0113565038481794</v>
+        <v>0.001957376813162035</v>
       </c>
       <c r="J34">
-        <v>0.0121932469968662</v>
+        <v>0.002175106422963506</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>18.96012766666667</v>
+        <v>22.57116733333334</v>
       </c>
       <c r="N34">
-        <v>56.88038300000001</v>
+        <v>67.71350200000001</v>
       </c>
       <c r="O34">
-        <v>0.4062443173584093</v>
+        <v>0.3206844563123603</v>
       </c>
       <c r="P34">
-        <v>0.4156801855943991</v>
+        <v>0.3246513789617676</v>
       </c>
       <c r="Q34">
-        <v>29.54384789139156</v>
+        <v>6.558812564666889</v>
       </c>
       <c r="R34">
-        <v>265.894631022524</v>
+        <v>59.029313082002</v>
       </c>
       <c r="S34">
-        <v>0.004613515153381788</v>
+        <v>0.0006277003191272878</v>
       </c>
       <c r="T34">
-        <v>0.005068491174655691</v>
+        <v>0.0007061512996037001</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>1.558209333333333</v>
+        <v>0.2905836666666666</v>
       </c>
       <c r="H35">
-        <v>4.674628</v>
+        <v>0.8717509999999999</v>
       </c>
       <c r="I35">
-        <v>0.0113565038481794</v>
+        <v>0.001957376813162035</v>
       </c>
       <c r="J35">
-        <v>0.0121932469968662</v>
+        <v>0.002175106422963506</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.3405015</v>
+        <v>0.4462095</v>
       </c>
       <c r="N35">
-        <v>0.681003</v>
+        <v>0.892419</v>
       </c>
       <c r="O35">
-        <v>0.007295668144165683</v>
+        <v>0.006339612337975524</v>
       </c>
       <c r="P35">
-        <v>0.004976750128956454</v>
+        <v>0.00427868963211623</v>
       </c>
       <c r="Q35">
-        <v>0.530572615314</v>
+        <v>0.1296611926115</v>
       </c>
       <c r="R35">
-        <v>3.183435691884</v>
+        <v>0.7779671556689999</v>
       </c>
       <c r="S35">
-        <v>8.285328335425742E-05</v>
+        <v>1.240901019478925E-05</v>
       </c>
       <c r="T35">
-        <v>6.068274356405175E-05</v>
+        <v>9.306605300683374E-06</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>1.558209333333333</v>
+        <v>0.2905836666666666</v>
       </c>
       <c r="H36">
-        <v>4.674628</v>
+        <v>0.8717509999999999</v>
       </c>
       <c r="I36">
-        <v>0.0113565038481794</v>
+        <v>0.001957376813162035</v>
       </c>
       <c r="J36">
-        <v>0.0121932469968662</v>
+        <v>0.002175106422963506</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.981512</v>
+        <v>33.90675166666667</v>
       </c>
       <c r="N36">
-        <v>5.944536</v>
+        <v>101.720255</v>
       </c>
       <c r="O36">
-        <v>0.04245635915166902</v>
+        <v>0.4817370791224127</v>
       </c>
       <c r="P36">
-        <v>0.04344249629529721</v>
+        <v>0.4876962508022792</v>
       </c>
       <c r="Q36">
-        <v>3.087610492512</v>
+        <v>9.852748224056111</v>
       </c>
       <c r="R36">
-        <v>27.788494432608</v>
+        <v>88.674734016505</v>
       </c>
       <c r="S36">
-        <v>0.0004821558060856158</v>
+        <v>0.0009429409887146155</v>
       </c>
       <c r="T36">
-        <v>0.0005297050874890037</v>
+        <v>0.001060791247575259</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>1.558209333333333</v>
+        <v>0.2905836666666666</v>
       </c>
       <c r="H37">
-        <v>4.674628</v>
+        <v>0.8717509999999999</v>
       </c>
       <c r="I37">
-        <v>0.0113565038481794</v>
+        <v>0.001957376813162035</v>
       </c>
       <c r="J37">
-        <v>0.0121932469968662</v>
+        <v>0.002175106422963506</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>21.53042833333333</v>
+        <v>10.30500066666667</v>
       </c>
       <c r="N37">
-        <v>64.591285</v>
+        <v>30.915002</v>
       </c>
       <c r="O37">
-        <v>0.4613162060130196</v>
+        <v>0.146410395496389</v>
       </c>
       <c r="P37">
-        <v>0.4720312332738815</v>
+        <v>0.1482215176214901</v>
       </c>
       <c r="Q37">
-        <v>33.54891437966445</v>
+        <v>2.994464878722444</v>
       </c>
       <c r="R37">
-        <v>301.94022941698</v>
+        <v>26.950183908502</v>
       </c>
       <c r="S37">
-        <v>0.005238939268814377</v>
+        <v>0.0002865803133505152</v>
       </c>
       <c r="T37">
-        <v>0.005755593417543802</v>
+        <v>0.0003223975749999016</v>
       </c>
     </row>
   </sheetData>
